--- a/Docs/Codex_Task_Backlog-20251202a.xlsx
+++ b/Docs/Codex_Task_Backlog-20251202a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GitHub\LalaLaunchPlugin\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18610760-AAD2-4E17-8838-89475F96B75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B80890-C867-400A-AA11-B80BFFDB95CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="315" windowWidth="28770" windowHeight="15450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11235" yWindow="-21510" windowWidth="37395" windowHeight="20400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasking Order" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="171">
   <si>
     <t>ID</t>
   </si>
@@ -783,6 +783,40 @@
     <t>Clearing manual lap-time overrides when the planning source changes now refreshes both lap time and fuel from the newly selected source.
 Live average lap-time updates in Live Snapshot mode now feed the Avg Lap textbox in real time while respecting manual overrides
 https://github.com/Lalabot77/LalaLaunchPlugin/pull/147</t>
+  </si>
+  <si>
+    <t>Initial test show time counting up over multiple lapped counts which is incorrect. Will create new task.</t>
+  </si>
+  <si>
+    <t>LALA-50</t>
+  </si>
+  <si>
+    <t>Align “Drive Time After Zero” with strategy model, leader/driver properties and Avg Lap source</t>
+  </si>
+  <si>
+    <t>In time-limited races the Fuel tab’s “Est. Drive Time After Timer Zero” display is still using the separate ComputeExtraSecondsAfterTimerZero helper, which ignores the lapping-aware strategy model. The time-limited part of CalculateStrategy already computes the correct number of player laps (num6) and passes this into CalculateSingleStrategy, which simulates the full race including pit lane loss and lapping (“Lapped on Lap 21, 41, 61” etc.) and sets StrategyResult.TotalTime. The fuel and stint breakdown use this path and behave correctly when the “Your Pace vs Leader (s)” slider is moved, including reducing player laps when lapped; however the “Est. Drive Time After Timer Zero” UI does not, so it can show unrealistic values (e.g. 7:41 = ~4+ laps) that no longer match the strategy. Manual changes to the Avg Lap textbox also do not affect the time-after-zero calculation – only the slider does – so there is a mismatch between the driver’s visible Avg Lap and the pace used by the extra-time logic. At the same time, SimHub log messages and leader/driver extra-time properties added in earlier work must stay wired to the correct values.
+The task is to remove the separate extra-time helper as the “truth” for the UI and instead derive both leader and driver “time after zero” directly from the same strategy result that drives total fuel and stint breakdown, making sure that the Avg Lap textbox (profile/live/manual) is the single source for driver pace, and that SimHub properties and logging are updated from the same values.</t>
+  </si>
+  <si>
+    <t>In time-limited races, the Fuel tab’s “Est. Drive Time After Timer Zero” is no longer based on a standalone ComputeExtraSecondsAfterTimerZero calculation; instead it is derived from the strategy result produced in CalculateStrategy / CalculateSingleStrategy (e.g. max(0, StrategyResult.TotalTime – RaceMinutes*60) plus any agreed cap).
+For a range of test cases (short and long time-limited races, with and without lapping, varying “Your Pace vs Leader (s)”):
+– Total Fuel Needed and the stint breakdown remain unchanged compared to current behaviour.
+– “Est. Drive Time After Timer Zero” updates smoothly as the Pace vs Leader slider is moved, but now respects lapping: values stay in a realistic range (≈ 0–2 laps worth of the driver’s current Avg Lap), and drop appropriately when the calculated player laps are reduced due to being lapped.
+The driver Avg Lap textbox on the Fuel tab becomes the single source for yourLapSec in time-limited strategy:
+– When Avg Lap is populated from profile, live snapshot, or manual override, both fuel calculation and “Est. Drive Time After Timer Zero” use that value.
+– Changing Avg Lap manually while in profile mode immediately influences both Total Fuel Needed and the drive-time-after-zero display in a way consistent with the new lap time.
+The leader pace used for extra-time calculation is consistent with the leader pace that drives the time-limited strategy (same SimHub properties / internal fields as used for lapping in CalculateStrategy).
+The SimHub properties created for leader and driver extra time after zero (from earlier work on LALA-036/037/039) remain exposed and are now updated from the same values used for the Fuel tab display. Existing SimHub log info messages at session end (e.g. [LalaLaunch] Finish timing: timer0=..., leader after 00:00=..., driver after 00:00=...) continue to be emitted and their values broadly match the new Fuel tab extra-time display in real replays and live sessions (within expected tolerance).
+No regressions in non-time-limited races: distance-based behaviour is unchanged, and “Est. Drive Time After Timer Zero” stays at 0:00 or hidden as currently designed.</t>
+  </si>
+  <si>
+    <t>LALA-050: Align the Fuel tab “Est. Drive Time After Timer Zero” with the main time-limited strategy model and ensure it uses the same leader/driver pace and Avg Lap source as the fuel calculation. Right now, time-limited strategy in CalculateStrategy computes the correct player laps (num6) and passes them into CalculateSingleStrategy, which simulates pit lane time and lapping to produce StrategyResult.TotalTime, TotalFuel, and the stint breakdown. The “Total Fuel Needed” value and “Lapped on Lap …” messages are correct and react properly when the “Your Pace vs Leader (s)” slider is moved. However, the “Est. Drive Time After Timer Zero” UI still uses the separate ComputeExtraSecondsAfterTimerZero helper based only on leaderLapSec, yourLapSec and raceSeconds, ignoring the lapping-aware strategy. In long time-limited races with multiple predicted lappings this produces unrealistic values (e.g. 7:41 = ~4+ laps) even though the fuel model knows the driver’s race distance is much shorter. Also, when the Avg Lap textbox is set manually in the Fuel tab, it does not influence the extra-time calculation – only the pace slider does – so there is a mismatch between the visible Avg Lap and the pace actually used for extra time.
+Refactor the time-limited path so that “Est. Drive Time After Timer Zero” is computed directly from the same strategy result that drives fuel and stints (e.g. using max(0, StrategyResult.TotalTime – RaceMinutes*60) with an appropriate cap of ≈ 0–2 laps of the driver’s current Avg Lap). Make sure yourLapSec in the strategy uses the same Avg Lap source as the Fuel tab textbox (profile, live, or manual override), so that changing Avg Lap changes both Total Fuel Needed and the extra-time display. Keep using the same leader pace that drives the lapping logic for extra-time calculations. Finally, ensure that the SimHub properties and log messages added in earlier work for leader/driver “time after 00:00” are updated from these new values and still match the Fuel tab display in real tests, with no regressions for distance-based races.</t>
+  </si>
+  <si>
+    <t>Added explicit leader and driver extra-time strategy properties and notifications to keep UI/SimHub consumers aligned with strategy outputs.
+Rebased the “Est. Drive Time After Timer Zero” calculation on strategy results, clamping to a realistic window and resetting values when invalid or non-time-limited.
+https://github.com/Lalabot77/LalaLaunchPlugin/pull/149</t>
   </si>
 </sst>
 </file>
@@ -1370,13 +1404,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,7 +1508,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="165" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="285" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1579,7 +1613,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="360" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1611,7 +1645,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="165" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="255" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1640,7 +1674,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="300" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1733,7 +1767,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="360" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1765,7 +1799,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="270" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="315" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1947,7 +1981,9 @@
       <c r="K17" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1981,7 +2017,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="390" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
@@ -2040,6 +2076,35 @@
       </c>
       <c r="I20" s="1" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
